--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\algorithm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA6AD22-0F54-4E03-B2D4-489297B2DC73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,13 +38,33 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合了归并算法和二分插入排序算法的精髓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacyMergeSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -219,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -396,26 +410,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,25 +449,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -459,7 +486,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -468,7 +495,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -477,7 +504,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -486,7 +513,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -495,7 +522,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -504,7 +531,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -513,7 +540,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -522,7 +549,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>

--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -7,9 +7,13 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="算法" sheetId="1" r:id="rId1"/>
+    <sheet name="应用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法!$A$1:$K$2</definedName>
+  </definedNames>
+  <calcPr calcId="144525" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,15 +53,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融合了归并算法和二分插入排序算法的精髓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>legacyMergeSort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>归并排序算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重for循环实现，将值较大或较小者向一侧移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaApi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(rd+n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(d(n+rd))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(d(r+n))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r代表关键字基数，d代表长度，n代表数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -127,16 +279,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,11 +648,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,35 +688,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -454,113 +1055,138 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>r代表关键字基数，d代表长度，n代表数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择数组第一个元素作为基准，将大于基准元素的数据向数组右侧移动，小于基准元素的数据向数据左侧移动，递归循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,14 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,12 +372,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,14 +695,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -709,42 +713,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
@@ -757,8 +761,8 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -791,7 +795,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -799,7 +803,9 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>42</v>
@@ -934,10 +940,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -961,10 +967,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -994,7 +1000,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>

--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>选择数组第一个元素作为基准，将大于基准元素的数据向数组右侧移动，小于基准元素的数据向数据左侧移动，递归循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从待排序数据中选取一个，插入到已排序的集合中的合适位置，通过移动元素实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,7 +699,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,7 +828,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -834,7 +838,9 @@
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>35</v>

--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -145,79 +145,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(rd+n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(d(n+rd))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(d(r+n))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r代表关键字基数，d代表长度，n代表数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择数组第一个元素作为基准，将大于基准元素的数据向数组右侧移动，小于基准元素的数据向数据左侧移动，递归循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从待排序数据中选取一个，插入到已排序的集合中的合适位置，通过移动元素实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shell排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基数排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(n^1.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(nlog(n))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(rd+n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(d(n+rd))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(d(r+n))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r代表关键字基数，d代表长度，n代表数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择数组第一个元素作为基准，将大于基准元素的数据向数组右侧移动，小于基准元素的数据向数据左侧移动，递归循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从待排序数据中选取一个，插入到已排序的集合中的合适位置，通过移动元素实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,7 +699,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,7 +741,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="11"/>
       <c r="J1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>4</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
@@ -795,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -808,23 +808,23 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -839,11 +839,11 @@
         <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -865,24 +865,24 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -891,15 +891,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -911,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -921,24 +921,24 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -947,25 +947,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -974,28 +974,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">

--- a/algorithm/algorithm.xlsx
+++ b/algorithm/algorithm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\algorithm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F73D81-71D6-4B9B-9B5D-B90D51F4C966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,13 +224,41 @@
   </si>
   <si>
     <t>shell排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折半查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树排序查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分块查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将待插入数据分为多个数据块，数据块之间有序，数据块内无序，类似于插入排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -388,6 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,35 +723,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -747,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -768,7 +804,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -799,7 +835,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -828,7 +864,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -859,7 +895,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -886,7 +922,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -915,7 +951,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -942,7 +978,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -969,7 +1005,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -998,20 +1034,163 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1031,21 +1210,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1077,7 +1256,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1092,105 +1271,105 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
